--- a/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/126/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,210 +40,216 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>return</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>missing</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>picture</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>price</t>
+    <t>better</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -253,33 +259,36 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>elf</t>
+  </si>
+  <si>
     <t>helicopter</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
@@ -289,28 +298,34 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>play</t>
@@ -674,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>0.7692307692307693</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -785,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -793,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9466019417475728</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>0.5974025974025974</v>
+        <v>0.59375</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>0.574468085106383</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9347826086956522</v>
+        <v>0.9223300970873787</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9318181818181818</v>
+        <v>0.9157894736842105</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.515625</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -993,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9052631578947369</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1011,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.4731182795698925</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1035,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1043,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9014084507042254</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.4464285714285715</v>
+        <v>0.4375</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8857142857142857</v>
+        <v>0.9086021505376344</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K10">
         <v>0.4285714285714285</v>
@@ -1143,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8817204301075269</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1161,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.4211618257261411</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="L11">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="M11">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>0.3830703012912482</v>
+        <v>0.3945480631276901</v>
       </c>
       <c r="L12">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M12">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.3577981651376147</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>210</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7741935483870968</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,28 +1329,28 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.3188405797101449</v>
+        <v>0.3730886850152905</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1343,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.2821985233798195</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L15">
-        <v>344</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>875</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1393,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1411,31 +1426,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>0.2506963788300836</v>
+        <v>0.294987674609696</v>
       </c>
       <c r="L16">
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="M16">
-        <v>90</v>
+        <v>362</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>269</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1443,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1461,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.2349397590361446</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1493,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.734375</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.2307692307692308</v>
+        <v>0.2395543175487465</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>90</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1543,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6111111111111112</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C19">
         <v>33</v>
@@ -1561,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>0.201058201058201</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1593,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1611,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K20">
-        <v>0.1833333333333333</v>
+        <v>0.1589876703439325</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>98</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1643,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5952380952380952</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,31 +1676,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.1689408706952567</v>
+        <v>0.1461267605633803</v>
       </c>
       <c r="L21">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="M21">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1279</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5734597156398105</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,31 +1726,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.1294014084507042</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L22">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>989</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,31 +1776,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K23">
-        <v>0.1192982456140351</v>
+        <v>0.1298245614035088</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N23">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5245901639344263</v>
+        <v>0.6066350710900474</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,31 +1826,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.05100671140939597</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.16</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>707</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5072463768115942</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,7 +1876,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25">
+        <v>0.06970509383378017</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>0.96</v>
+      </c>
+      <c r="O25">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4819277108433735</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,7 +1926,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26">
+        <v>0.05597964376590331</v>
+      </c>
+      <c r="L26">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>0.88</v>
+      </c>
+      <c r="O26">
+        <v>0.12</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,25 +1958,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4742268041237113</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C27">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>46</v>
       </c>
-      <c r="D27">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>51</v>
+      <c r="J27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27">
+        <v>0.05220883534136546</v>
+      </c>
+      <c r="L27">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>0.89</v>
+      </c>
+      <c r="O27">
+        <v>0.11</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1921,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4653465346534654</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C28">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1939,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1947,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4642857142857143</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1965,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1973,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4444444444444444</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1991,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1999,13 +2086,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4434782608695652</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="C31">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2017,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>192</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2025,13 +2112,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4310344827586207</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2043,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2051,13 +2138,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4259259259259259</v>
+        <v>0.4521739130434783</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2069,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2077,13 +2164,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3955696202531646</v>
+        <v>0.4504950495049505</v>
       </c>
       <c r="C34">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D34">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2095,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2103,13 +2190,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2121,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2129,13 +2216,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3902439024390244</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2147,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2155,13 +2242,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3697478991596639</v>
+        <v>0.4033613445378151</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2173,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2181,13 +2268,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3378378378378378</v>
+        <v>0.4018987341772152</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2199,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2207,13 +2294,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.335</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C39">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2225,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>133</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2233,13 +2320,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2967032967032967</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2251,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2259,13 +2346,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2905982905982906</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2277,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2285,13 +2372,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2734375</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2303,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2311,13 +2398,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2572463768115942</v>
+        <v>0.2789855072463768</v>
       </c>
       <c r="C43">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2329,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2337,13 +2424,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.239766081871345</v>
+        <v>0.265</v>
       </c>
       <c r="C44">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2355,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2363,13 +2450,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2393162393162393</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2381,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2389,13 +2476,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2349726775956284</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C46">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2407,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2415,13 +2502,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2341772151898734</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C47">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2433,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2441,13 +2528,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2193877551020408</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="C48">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2459,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2467,25 +2554,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2056962025316456</v>
+        <v>0.2265625</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>251</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2493,13 +2580,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1968503937007874</v>
+        <v>0.2114537444933921</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2511,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>102</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2519,13 +2606,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1913946587537092</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="C51">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2537,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>545</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2545,25 +2632,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1872246696035242</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D52">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>369</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2571,25 +2658,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1857142857142857</v>
+        <v>0.1889880952380952</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>114</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2597,13 +2684,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1824324324324324</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2615,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2623,13 +2710,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1714285714285714</v>
+        <v>0.1766561514195584</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2641,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>145</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2649,13 +2736,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1302083333333333</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2667,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2675,13 +2762,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1293103448275862</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2693,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>303</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2701,13 +2788,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1205479452054795</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C58">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2719,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>321</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2727,25 +2814,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1142191142191142</v>
+        <v>0.1412103746397695</v>
       </c>
       <c r="C59">
         <v>49</v>
       </c>
       <c r="D59">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F59">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>380</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2753,25 +2840,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1121495327102804</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2779,25 +2866,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1116207951070336</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C61">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>581</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2805,25 +2892,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1075268817204301</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2831,25 +2918,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.08270676691729323</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2857,25 +2944,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.07954545454545454</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E64">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2883,25 +2970,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06303724928366762</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>327</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2909,25 +2996,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.06060606060606061</v>
+        <v>0.08702290076335878</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>403</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2935,25 +3022,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05629139072847682</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="C67">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D67">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F67">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>570</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2961,25 +3048,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0514018691588785</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D68">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E68">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F68">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2987,25 +3074,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04710920770877945</v>
+        <v>0.07308970099667775</v>
       </c>
       <c r="C69">
         <v>22</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E69">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>445</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3013,25 +3100,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0437375745526839</v>
+        <v>0.07242990654205607</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>481</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3039,25 +3126,77 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.03670886075949367</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D71">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E71">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>761</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.06446280991735537</v>
+      </c>
+      <c r="C72">
+        <v>39</v>
+      </c>
+      <c r="D72">
+        <v>42</v>
+      </c>
+      <c r="E72">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.03291139240506329</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>0.13</v>
+      </c>
+      <c r="F73">
+        <v>0.87</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
